--- a/Team Backlog.xlsx
+++ b/Team Backlog.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_workspace\MovingCarProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD51F9C-B1B0-4A97-8DFD-659719CDD228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE853D-E5BC-4E25-AD97-1FE988100FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Task Name</t>
   </si>
   <si>
-    <t>Assigne</t>
-  </si>
-  <si>
     <t>Task Status</t>
   </si>
   <si>
@@ -43,13 +49,40 @@
   </si>
   <si>
     <t>Task ID</t>
+  </si>
+  <si>
+    <t>01-MCAL</t>
+  </si>
+  <si>
+    <t>PWM Module</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Bassel Yasser</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>02-HAL</t>
+  </si>
+  <si>
+    <t>HPWM</t>
+  </si>
+  <si>
+    <t>03-Documentation</t>
+  </si>
+  <si>
+    <t>Driver Docs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +94,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,13 +132,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123E326-AE56-4BD1-BFE1-3D77BAFFAE7E}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
@@ -430,25 +479,116 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>95</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45264</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45264</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D51">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7246BB99-0004-4997-96A7-953C6CC7949D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7246BB99-0004-4997-96A7-953C6CC7949D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D51</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>